--- a/LISTA_DE_MATERIAIS/LISTA DE MATERIAIS SEMÁFARO.xlsx
+++ b/LISTA_DE_MATERIAIS/LISTA DE MATERIAIS SEMÁFARO.xlsx
@@ -9,94 +9,112 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhumJNC9w0jqXsd93DeRrEmOSMZgg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mho0Q/5BDKkRbopwOTgC3vTnXklGg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+  <si>
+    <t>ATUALIZAÇÃO DOS PREÇOS COM A COMPRA DOS COMPONETES EM: 22/04/2021</t>
+  </si>
+  <si>
+    <t>Display com semáfaro simples COMPRA 4 UNIDADES</t>
+  </si>
+  <si>
+    <t>COMPONENTES</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Preço Unit</t>
+  </si>
+  <si>
+    <t>Data compra</t>
+  </si>
+  <si>
+    <t>Total em R$</t>
+  </si>
+  <si>
+    <t>Sinalizador Semaforo 37 Led 160 Mm Verde Vermelho 12V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receptora Srx 302 3 Canais Multifuncional </t>
+  </si>
+  <si>
+    <t>fonte 12V 3A</t>
+  </si>
+  <si>
+    <t>Acrilico frontal</t>
+  </si>
+  <si>
+    <t>Caixa plastica 350x270x150</t>
+  </si>
+  <si>
+    <t>terminal prensa cabo</t>
+  </si>
+  <si>
+    <t>PCB e componentes</t>
+  </si>
+  <si>
+    <t>Reles auxiliares</t>
+  </si>
+  <si>
+    <t>Eletroduto Galvanizado Médio 2 3m</t>
+  </si>
+  <si>
+    <t>Eletroduto Flex Preto Reforçado 3/4</t>
+  </si>
+  <si>
+    <t>Abraçadeira tipo U 2 pol</t>
+  </si>
+  <si>
+    <t>Fretes</t>
+  </si>
+  <si>
+    <t>Projeto configurações e manual de instalação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fio Cabo Pp 2 Vias De 1,50mm (2 X 1,50) </t>
+  </si>
+  <si>
+    <t>valor unitário</t>
+  </si>
   <si>
     <t>ATUALIZAÇÃO DOS PREÇOS COM A COMPRA DOS COMPONETES EM: 13/04/2021</t>
   </si>
   <si>
-    <t>Display com semáfaro simples</t>
-  </si>
-  <si>
-    <t>COMPONENTES</t>
-  </si>
-  <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
-    <t>Preço Unit</t>
-  </si>
-  <si>
-    <t>Data compra</t>
-  </si>
-  <si>
-    <t>Total em R$</t>
+    <t>Display com semáfaro arduino display MONO VERMELHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo para Painel LED P10 Vermelho 32x16cm HUB12 P10(1R) </t>
+  </si>
+  <si>
+    <t>caixa display  pintura+mão de obra+dobra+materiais</t>
+  </si>
+  <si>
+    <t>arduino uno + regulador</t>
+  </si>
+  <si>
+    <t>Caixa De Passagem 25*15*10</t>
+  </si>
+  <si>
+    <t>cabo 4 vias celula de carga</t>
+  </si>
+  <si>
+    <t>Display com semáfaro arduino display RGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo para Painel RGB 32x16cm </t>
+  </si>
+  <si>
+    <t>Materiais para desenvolvimento</t>
   </si>
   <si>
     <t>Sinalizador Semaforo 37 Led 160 Mm Verde Vermelho Bivolt Aut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receptora Srx 302 3 Canais Multifuncional </t>
-  </si>
-  <si>
-    <t>fonte 12V 3A</t>
-  </si>
-  <si>
-    <t>Caixa De Passagem 25*15*10</t>
-  </si>
-  <si>
-    <t>terminal prensa cabo</t>
-  </si>
-  <si>
-    <t>Eletroduto Galvanizado Médio 2 3m</t>
-  </si>
-  <si>
-    <t>Eletroduto Flex Preto Reforçado 3/4</t>
-  </si>
-  <si>
-    <t>Abraçadeira tipo U 2 pol</t>
-  </si>
-  <si>
-    <t>Fretes</t>
-  </si>
-  <si>
-    <t>Projeto configurações e manual de instalação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fio Cabo Pp 2 Vias De 1,50mm (2 X 1,50) </t>
-  </si>
-  <si>
-    <t>SUBTOTAL</t>
-  </si>
-  <si>
-    <t>Display com semáfaro arduino display MONO VERMELHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo para Painel LED P10 Vermelho 32x16cm HUB12 P10(1R) </t>
-  </si>
-  <si>
-    <t>caixa display  pintura+mão de obra+dobra+materiais</t>
-  </si>
-  <si>
-    <t>arduino uno + regulador</t>
-  </si>
-  <si>
-    <t>cabo 4 vias celula de carga</t>
-  </si>
-  <si>
-    <t>Display com semáfaro arduino display RGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo para Painel RGB 32x16cm </t>
-  </si>
-  <si>
-    <t>Materiais para desenvolvimento</t>
   </si>
   <si>
     <t>Gasto até o agora</t>
@@ -119,7 +137,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -137,18 +155,14 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11.0"/>
-      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -204,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border/>
     <border>
       <bottom style="medium">
@@ -335,6 +349,24 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -347,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -369,7 +401,7 @@
     <xf borderId="6" fillId="3" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="3" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -378,38 +410,41 @@
     <xf borderId="8" fillId="3" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="4" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="4" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,37 +452,26 @@
     <xf borderId="10" fillId="4" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="4" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="2" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -668,1091 +692,1142 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="7.63"/>
     <col customWidth="1" min="2" max="2" width="50.75"/>
-    <col customWidth="1" min="3" max="3" width="17.63"/>
+    <col customWidth="1" min="3" max="3" width="11.38"/>
     <col customWidth="1" min="4" max="4" width="8.88"/>
     <col customWidth="1" min="5" max="5" width="15.0"/>
     <col customWidth="1" min="6" max="7" width="13.13"/>
     <col customWidth="1" min="8" max="26" width="7.63"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="14.25" customHeight="1"/>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="12" t="s">
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="C5" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="D5" s="14">
         <v>266.0</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17">
-        <f t="shared" ref="G4:G15" si="1">C4*D4</f>
-        <v>532</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>124.0</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
       <c r="G5" s="17">
-        <f t="shared" si="1"/>
-        <v>248</v>
+        <f t="shared" ref="G5:G12" si="1">C5*D5</f>
+        <v>1064</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1.0</v>
+      <c r="B6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19">
+        <v>2.0</v>
       </c>
       <c r="D6" s="14">
-        <v>45.0</v>
-      </c>
-      <c r="E6" s="15"/>
+        <v>124.0</v>
+      </c>
+      <c r="E6" s="20">
+        <v>44308.0</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="12" t="s">
-        <v>10</v>
+      <c r="B7" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="13">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D7" s="14">
-        <v>35.0</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+        <v>45.0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>44308.0</v>
+      </c>
+      <c r="F7" s="16"/>
       <c r="G7" s="17">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="B8" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="D8" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+        <v>4.0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>40.0</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="17">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="D9" s="14">
-        <v>75.0</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+        <v>4.0</v>
+      </c>
+      <c r="D9" s="22">
+        <v>125.0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>44308.0</v>
+      </c>
+      <c r="F9" s="16"/>
       <c r="G9" s="17">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>13</v>
+      <c r="B10" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="C10" s="13">
-        <v>60.0</v>
+        <v>4.0</v>
       </c>
       <c r="D10" s="14">
-        <v>1.35</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="17">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="B11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="13">
         <v>4.0</v>
       </c>
       <c r="D11" s="22">
-        <v>4.5</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+        <v>25.0</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="17">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="24">
-        <v>86.0</v>
-      </c>
-      <c r="E12" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="D12" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>75.0</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="B14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C14" s="13">
+        <v>120.0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1.35</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="B15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="B16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="24">
         <v>1.0</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D16" s="25">
+        <v>86.0</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="B17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="D17" s="14">
         <v>250.0</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="B18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="14">
         <v>60.0</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D18" s="14">
         <v>3.5</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="18"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27">
-        <f>SUM(G4:G15)</f>
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="B20" s="27"/>
+      <c r="C20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30">
+        <f>G20/4</f>
+        <v>574</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30">
+        <f>SUM(G5:G19)</f>
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="B26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="13">
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="B27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="19">
         <v>2.0</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D27" s="14">
         <v>95.0</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17">
-        <f t="shared" ref="G20:G34" si="2">C20*D20</f>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17">
+        <f t="shared" ref="G27:G41" si="2">C27*D27</f>
         <v>190</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="21">
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="B28" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="19">
         <v>2.0</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D28" s="14">
         <v>225.0</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17">
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="13">
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="B29" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="19">
         <v>2.0</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D29" s="14">
         <v>75.0</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17">
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="18" t="s">
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="B30" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C30" s="19">
         <v>2.0</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D30" s="14">
         <v>124.0</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17">
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="B24" s="20" t="s">
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="B31" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C31" s="19">
         <v>1.0</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D31" s="14">
         <v>45.0</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17">
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="13">
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="B32" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="19">
         <v>1.0</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D32" s="14">
         <v>35.0</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="17">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="13">
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="B33" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="19">
         <v>6.0</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D33" s="14">
         <v>3.5</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="17">
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="13">
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="B34" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="19">
         <v>2.0</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D34" s="14">
         <v>75.0</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="17">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="13">
-        <v>60.0</v>
-      </c>
-      <c r="D28" s="14">
-        <v>1.35</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="17">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="D29" s="22">
-        <v>4.5</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="17">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="24">
-        <v>86.0</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="17">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="B31" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="D31" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="17">
-        <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="14">
-        <v>250.0</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="17">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="B33" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="21">
-        <v>36.0</v>
-      </c>
-      <c r="D33" s="22">
-        <v>3.1</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="17">
-        <f t="shared" si="2"/>
-        <v>111.6</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="25"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28" t="s">
+      <c r="B35" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="19">
+        <v>60.0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1.35</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="B36" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="D36" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27">
-        <f>SUM(G20:G34)</f>
-        <v>1940.6</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1"/>
+    </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="B37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
+      <c r="B37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="25">
+        <v>86.0</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="B38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="11" t="s">
-        <v>6</v>
+      <c r="B38" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="D38" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17">
+        <f t="shared" si="2"/>
+        <v>105</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="B39" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="13">
-        <v>2.0</v>
+      <c r="B39" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="24">
+        <v>1.0</v>
       </c>
       <c r="D39" s="14">
-        <v>380.0</v>
-      </c>
-      <c r="E39" s="15"/>
+        <v>250.0</v>
+      </c>
+      <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="17">
-        <f t="shared" ref="G39:G52" si="3">C39*D39</f>
-        <v>760</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="B40" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="D40" s="22">
-        <v>150.0</v>
-      </c>
-      <c r="E40" s="15"/>
+      <c r="B40" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="19">
+        <v>36.0</v>
+      </c>
+      <c r="D40" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17">
+        <f t="shared" si="2"/>
+        <v>111.6</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="B41" s="21"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="B42" s="27"/>
+      <c r="C42" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30">
+        <f>G42/2</f>
+        <v>970.3</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30">
+        <f>SUM(G27:G41)</f>
+        <v>1940.6</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="B44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="B45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="B46" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D46" s="14">
+        <v>380.0</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17">
+        <f t="shared" ref="G46:G59" si="3">C46*D46</f>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="B47" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D47" s="14">
+        <v>150.0</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="B41" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="13">
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="B48" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="19">
         <v>2.0</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D48" s="14">
         <v>75.0</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17">
+      <c r="E48" s="15"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="B42" s="18" t="s">
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="B49" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C49" s="19">
         <v>2.0</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D49" s="14">
         <v>124.0</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17">
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17">
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="B43" s="20" t="s">
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="B50" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C50" s="19">
         <v>1.0</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D50" s="14">
         <v>45.0</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17">
+      <c r="E50" s="15"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="B44" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="13">
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="B51" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="19">
         <v>1.0</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D51" s="14">
         <v>35.0</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="17">
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="17">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="B45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="13">
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="B52" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="19">
         <v>6.0</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D52" s="14">
         <v>3.5</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="17">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="D46" s="14">
-        <v>75.0</v>
-      </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="17">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="B47" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="13">
-        <v>60.0</v>
-      </c>
-      <c r="D47" s="14">
-        <v>1.35</v>
-      </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="17">
-        <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="B48" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="D48" s="22">
-        <v>4.5</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="17">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="B49" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="D49" s="24">
-        <v>86.0</v>
-      </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="17">
-        <f t="shared" si="3"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="B50" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="D50" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="17">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="B51" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="D51" s="14">
-        <v>250.0</v>
-      </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="17">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="B52" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="21">
-        <v>36.0</v>
-      </c>
-      <c r="D52" s="22">
-        <v>3.1</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
       <c r="G52" s="17">
         <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="B53" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D53" s="14">
+        <v>75.0</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="17">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="B54" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="19">
+        <v>60.0</v>
+      </c>
+      <c r="D54" s="14">
+        <v>1.35</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="17">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="B55" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="D55" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="17">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="B56" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="D56" s="25">
+        <v>86.0</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="B57" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="D57" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="17">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="B58" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="D58" s="14">
+        <v>250.0</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="17">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="B59" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="19">
+        <v>36.0</v>
+      </c>
+      <c r="D59" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="17">
+        <f t="shared" si="3"/>
         <v>111.6</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="29"/>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27">
-        <f>SUM(G39:G53)</f>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="B60" s="21"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="17"/>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="B61" s="27"/>
+      <c r="C61" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="30">
+        <f>G61/2</f>
+        <v>1180.3</v>
+      </c>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30">
+        <f>SUM(G46:G60)</f>
         <v>2360.6</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="B56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="B57" s="6" t="s">
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="B63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="B64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E64" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="11" t="s">
+      <c r="F64" s="10"/>
+      <c r="G64" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="B58" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="13">
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="B65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="19">
         <v>2.0</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D65" s="14">
         <v>266.0</v>
       </c>
-      <c r="E58" s="31">
+      <c r="E65" s="15">
         <v>44298.0</v>
       </c>
-      <c r="F58" s="19">
-        <f t="shared" ref="F58:F64" si="4">G58</f>
+      <c r="F65" s="16">
+        <f t="shared" ref="F65:F71" si="4">G65</f>
         <v>532</v>
       </c>
-      <c r="G58" s="17">
-        <f t="shared" ref="G58:G64" si="5">C58*D58</f>
+      <c r="G65" s="17">
+        <f t="shared" ref="G65:G71" si="5">C65*D65</f>
         <v>532</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="B59" s="18" t="s">
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="B66" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C66" s="19">
         <v>4.0</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D66" s="14">
         <v>124.0</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E66" s="15">
         <v>44298.0</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F66" s="16">
         <f t="shared" si="4"/>
         <v>496</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G66" s="17">
         <f t="shared" si="5"/>
         <v>496</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="B60" s="12" t="s">
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="B67" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C67" s="19">
         <v>3.0</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D67" s="14">
         <v>45.0</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E67" s="15">
         <v>44298.0</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F67" s="16">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G67" s="17">
         <f t="shared" si="5"/>
         <v>135</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="B61" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="21">
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="B68" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="19">
         <v>3.0</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D68" s="14">
         <v>380.0</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E68" s="15">
         <v>44298.0</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F68" s="16">
         <f t="shared" si="4"/>
         <v>1140</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G68" s="17">
         <f t="shared" si="5"/>
         <v>1140</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="B62" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="21">
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="B69" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="19">
         <v>2.0</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D69" s="14">
         <v>150.0</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E69" s="15">
         <v>44298.0</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F69" s="16">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G69" s="17">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="B63" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="13">
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="B70" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="19">
         <v>6.0</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D70" s="14">
         <v>75.0</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E70" s="15">
         <v>44298.0</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F70" s="16">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G70" s="17">
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="B64" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="21">
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="B71" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="19">
         <v>4.0</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D71" s="14">
         <v>95.0</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E71" s="15">
         <v>44298.0</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F71" s="16">
         <f t="shared" si="4"/>
         <v>380</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G71" s="17">
         <f t="shared" si="5"/>
         <v>380</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="B65" s="32"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="29"/>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="B66" s="18"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="B67" s="18"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="B68" s="18"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="19">
-        <f>SUM(G58:G65)</f>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="17"/>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="B76" s="21"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16">
+        <f>SUM(G65:G72)</f>
         <v>3433</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="B70" s="33"/>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="B71" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="B72" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="B74" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="B77" s="31"/>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="B78" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="B79" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="B81" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="82" ht="14.25" customHeight="1"/>
     <row r="83" ht="14.25" customHeight="1"/>
     <row r="84" ht="14.25" customHeight="1"/>
@@ -2640,88 +2715,22 @@
     <row r="966" ht="14.25" customHeight="1"/>
     <row r="967" ht="14.25" customHeight="1"/>
     <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
-    <row r="1001" ht="14.25" customHeight="1"/>
-    <row r="1002" ht="14.25" customHeight="1"/>
-    <row r="1003" ht="14.25" customHeight="1"/>
-    <row r="1004" ht="14.25" customHeight="1"/>
-    <row r="1005" ht="14.25" customHeight="1"/>
-    <row r="1006" ht="14.25" customHeight="1"/>
-    <row r="1007" ht="14.25" customHeight="1"/>
-    <row r="1008" ht="14.25" customHeight="1"/>
-    <row r="1009" ht="14.25" customHeight="1"/>
-    <row r="1010" ht="14.25" customHeight="1"/>
-    <row r="1011" ht="14.25" customHeight="1"/>
-    <row r="1012" ht="14.25" customHeight="1"/>
-    <row r="1013" ht="14.25" customHeight="1"/>
-    <row r="1014" ht="14.25" customHeight="1"/>
-    <row r="1015" ht="14.25" customHeight="1"/>
-    <row r="1016" ht="14.25" customHeight="1"/>
-    <row r="1017" ht="14.25" customHeight="1"/>
-    <row r="1018" ht="14.25" customHeight="1"/>
-    <row r="1019" ht="14.25" customHeight="1"/>
-    <row r="1020" ht="14.25" customHeight="1"/>
-    <row r="1021" ht="14.25" customHeight="1"/>
-    <row r="1022" ht="14.25" customHeight="1"/>
-    <row r="1023" ht="14.25" customHeight="1"/>
-    <row r="1024" ht="14.25" customHeight="1"/>
-    <row r="1025" ht="14.25" customHeight="1"/>
-    <row r="1026" ht="14.25" customHeight="1"/>
-    <row r="1027" ht="14.25" customHeight="1"/>
-    <row r="1028" ht="14.25" customHeight="1"/>
-    <row r="1029" ht="14.25" customHeight="1"/>
-    <row r="1030" ht="14.25" customHeight="1"/>
-    <row r="1031" ht="14.25" customHeight="1"/>
-    <row r="1032" ht="14.25" customHeight="1"/>
-    <row r="1033" ht="14.25" customHeight="1"/>
-    <row r="1034" ht="14.25" customHeight="1"/>
-    <row r="1035" ht="14.25" customHeight="1"/>
-    <row r="1036" ht="14.25" customHeight="1"/>
-    <row r="1037" ht="14.25" customHeight="1"/>
-    <row r="1038" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:G1"/>
+  <mergeCells count="9">
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="B23:G23"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B71"/>
-    <hyperlink r:id="rId2" location="position=3&amp;type=item&amp;tracking_id=348b8995-c5c5-4d71-9d61-68df567ef072" ref="B72"/>
-    <hyperlink r:id="rId3" ref="B74"/>
+    <hyperlink r:id="rId1" ref="B78"/>
+    <hyperlink r:id="rId2" location="position=3&amp;type=item&amp;tracking_id=348b8995-c5c5-4d71-9d61-68df567ef072" ref="B79"/>
+    <hyperlink r:id="rId3" ref="B81"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>

--- a/LISTA_DE_MATERIAIS/LISTA DE MATERIAIS SEMÁFARO.xlsx
+++ b/LISTA_DE_MATERIAIS/LISTA DE MATERIAIS SEMÁFARO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oinetsrv\Google Drive\PROJETOS\2020 - 1 - CONTROLTECH\20 - PROJETO DISPLAY RF433MHZ\display_remoto_p10_arduino_RF_433MHZ\LISTA_DE_MATERIAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BB3881-CB74-4C3F-AB52-8FE027969837}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CA1360-2865-46C9-8304-382146E29A81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="564" yWindow="1488" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
   <si>
     <t>ATUALIZAÇÃO DOS PREÇOS COM A COMPRA DOS COMPONETES EM: 22/04/2021</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>Custo por par semafaros</t>
+  </si>
+  <si>
+    <t>Qt</t>
+  </si>
+  <si>
+    <t>Display com semáfaro simples o par</t>
+  </si>
+  <si>
+    <t>ATUALIZAÇÃO DOS PREÇOS COM A COMPRA DOS COMPONETES EM: 27/05/2021</t>
   </si>
 </sst>
 </file>
@@ -434,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -508,10 +517,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -521,12 +532,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G970"/>
+  <dimension ref="B1:N970"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -756,21 +766,35 @@
     <col min="4" max="4" width="8.8984375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="7" width="13.09765625" customWidth="1"/>
-    <col min="8" max="26" width="7.59765625" customWidth="1"/>
+    <col min="8" max="8" width="2.59765625" customWidth="1"/>
+    <col min="9" max="9" width="46.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.8984375" customWidth="1"/>
+    <col min="12" max="13" width="7.59765625" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="I2" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+    </row>
+    <row r="3" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
@@ -779,8 +803,16 @@
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
       <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -797,8 +829,24 @@
       <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
@@ -810,12 +858,26 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="12">
-        <f t="shared" ref="G5:G14" si="0">C5*D5</f>
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="11">
+        <v>532</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2</v>
+      </c>
+      <c r="K5" s="20">
+        <v>160</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12">
+        <f t="shared" ref="N5:N20" si="0">J5*K5</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
@@ -829,12 +891,26 @@
         <v>44308</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
+        <v>124</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="20">
+        <v>124</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12">
         <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
@@ -848,12 +924,26 @@
         <v>44308</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
+        <v>45</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="20">
+        <v>45</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
@@ -865,12 +955,18 @@
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="12">
+      <c r="G8" s="11"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12">
         <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -884,177 +980,322 @@
         <v>44308</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
+        <v>250</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="15">
+        <v>44308</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
+        <v>14</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="8">
+        <v>4</v>
+      </c>
+      <c r="K10" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="17">
+        <v>143.75</v>
+      </c>
+      <c r="E11" s="15">
+        <v>44308</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11">
+        <v>287.5</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="17">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12">
+        <f t="shared" si="0"/>
+        <v>143.30000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="27">
+        <v>4</v>
+      </c>
+      <c r="D12" s="28">
+        <v>42.25</v>
+      </c>
+      <c r="E12" s="15">
+        <v>44308</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
+        <v>84.5</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="27">
+        <v>1</v>
+      </c>
+      <c r="K12" s="28">
+        <v>42.7</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12">
+        <f t="shared" si="0"/>
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="27">
+        <v>4</v>
+      </c>
+      <c r="D13" s="28">
+        <v>58.05</v>
+      </c>
+      <c r="E13" s="15">
+        <v>44308</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11">
+        <v>116.1</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="27">
+        <v>1</v>
+      </c>
+      <c r="K13" s="28">
+        <v>58.05</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12">
+        <f t="shared" si="0"/>
+        <v>58.05</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="17">
+        <v>35</v>
+      </c>
+      <c r="E14" s="15">
+        <v>44308</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
+        <v>35</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="8">
+        <v>4</v>
+      </c>
+      <c r="K14" s="17">
+        <v>35</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12">
+        <f>K14</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9">
+        <v>75</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="I15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2</v>
+      </c>
+      <c r="K15" s="20">
+        <v>75</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8">
+        <v>120</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="I16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="8">
+        <v>15</v>
+      </c>
+      <c r="K16" s="20">
+        <v>1.35</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="8">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="I17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="8">
+        <v>4</v>
+      </c>
+      <c r="K17" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <v>86</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11">
+        <v>86</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="19">
+        <v>1</v>
+      </c>
+      <c r="K18" s="20">
+        <v>125</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9">
+        <v>250</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11">
+        <v>500</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="8">
+        <v>2</v>
+      </c>
+      <c r="K19" s="20">
+        <v>250</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="12">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8">
-        <v>4</v>
-      </c>
-      <c r="D10" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="E10" s="15">
-        <v>44308</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8">
-        <v>4</v>
-      </c>
-      <c r="D11" s="17">
-        <f>G11/C11</f>
-        <v>143.75</v>
-      </c>
-      <c r="E11" s="15">
-        <v>44308</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="34">
-        <v>4</v>
-      </c>
-      <c r="D12" s="35">
-        <f>G12/C12</f>
-        <v>42.25</v>
-      </c>
-      <c r="E12" s="15">
-        <v>44308</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="34">
-        <v>4</v>
-      </c>
-      <c r="D13" s="35">
-        <f>G13/C13</f>
-        <v>58.05</v>
-      </c>
-      <c r="E13" s="15">
-        <v>44308</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12">
-        <v>232.2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="8">
-        <v>4</v>
-      </c>
-      <c r="D14" s="17">
-        <v>35</v>
-      </c>
-      <c r="E14" s="15">
-        <v>44308</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="8">
-        <v>4</v>
-      </c>
-      <c r="D15" s="9">
-        <v>75</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="8">
-        <v>120</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1.35</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="8">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="19">
-        <v>1</v>
-      </c>
-      <c r="D18" s="20">
-        <v>86</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="8">
-        <v>4</v>
-      </c>
-      <c r="D19" s="9">
-        <v>250</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
@@ -1066,46 +1307,74 @@
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="11"/>
+      <c r="I20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="20">
+        <v>60</v>
+      </c>
+      <c r="K20" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
       <c r="C21" s="19"/>
       <c r="D21" s="9"/>
       <c r="E21" s="21"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="11"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
       <c r="C22" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="33"/>
-      <c r="E22" s="23">
-        <f>G22/2</f>
-        <v>1596.1</v>
-      </c>
+      <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23">
         <f>SUM(G5:G21)</f>
-        <v>3192.2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
+        <v>2074.1</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="33"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23">
+        <f>SUM(N5:N21)</f>
+        <v>1282.05</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
         <v>23</v>
       </c>
@@ -1115,7 +1384,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1131,7 +1400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>24</v>
       </c>
@@ -1148,7 +1417,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>25</v>
       </c>
@@ -1165,7 +1434,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>26</v>
       </c>
@@ -1182,7 +1451,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>8</v>
       </c>
@@ -2820,16 +3089,19 @@
     <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="B46:G46"/>
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B27:G27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B80" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/LISTA_DE_MATERIAIS/LISTA DE MATERIAIS SEMÁFARO.xlsx
+++ b/LISTA_DE_MATERIAIS/LISTA DE MATERIAIS SEMÁFARO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oinetsrv\Google Drive\PROJETOS\2020 - 1 - CONTROLTECH\20 - PROJETO DISPLAY RF433MHZ\display_remoto_p10_arduino_RF_433MHZ\LISTA_DE_MATERIAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CA1360-2865-46C9-8304-382146E29A81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D17DA81-1BA1-42D3-85A3-A80B21D169BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="75" windowWidth="15885" windowHeight="19275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
-  <si>
-    <t>ATUALIZAÇÃO DOS PREÇOS COM A COMPRA DOS COMPONETES EM: 22/04/2021</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>Display com semáfaro simples COMPRA 4 UNIDADES</t>
   </si>
@@ -154,6 +151,18 @@
   </si>
   <si>
     <t>ATUALIZAÇÃO DOS PREÇOS COM A COMPRA DOS COMPONETES EM: 27/05/2021</t>
+  </si>
+  <si>
+    <t>PCB impostação FRETE</t>
+  </si>
+  <si>
+    <t>Custo por par SEM frete</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>ATUALIZAÇÃO DOS PREÇOS COM A COMPRA DOS COMPONETES EM: 23/06/2021</t>
   </si>
 </sst>
 </file>
@@ -164,7 +173,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +232,37 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -443,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -523,6 +563,11 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -532,11 +577,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,114 +852,115 @@
   <dimension ref="B1:N970"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" customWidth="1"/>
-    <col min="2" max="2" width="50.69921875" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="50.75" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="7" width="13.09765625" customWidth="1"/>
-    <col min="8" max="8" width="2.59765625" customWidth="1"/>
-    <col min="9" max="9" width="46.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="2.625" customWidth="1"/>
+    <col min="9" max="9" width="46.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.8984375" customWidth="1"/>
-    <col min="12" max="13" width="7.59765625" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="12" max="13" width="7.625" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="26" width="7.59765625" customWidth="1"/>
+    <col min="15" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="I2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+    </row>
+    <row r="3" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="I2" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-    </row>
-    <row r="3" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="I3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+    </row>
+    <row r="4" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="I3" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-    </row>
-    <row r="4" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="C5" s="38">
         <v>4</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="39">
         <v>266</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11">
-        <v>532</v>
+      <c r="E5" s="46"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40">
+        <f>D5*C5</f>
+        <v>1064</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="8">
         <v>2</v>
@@ -873,29 +971,30 @@
       <c r="L5" s="10"/>
       <c r="M5" s="11"/>
       <c r="N5" s="12">
-        <f t="shared" ref="N5:N20" si="0">J5*K5</f>
+        <f t="shared" ref="N5:N19" si="0">J5*K5</f>
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14">
+    <row r="6" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="47">
         <v>2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="39">
         <v>124</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="48">
         <v>44308</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11">
-        <v>124</v>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40">
+        <f t="shared" ref="G6:G21" si="1">D6*C6</f>
+        <v>248</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="19">
         <v>1</v>
@@ -910,25 +1009,26 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8">
+    <row r="7" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="38">
         <v>2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="39">
         <v>45</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="48">
         <v>44308</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11">
-        <v>45</v>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40">
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="8">
         <v>1</v>
@@ -943,19 +1043,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="17">
-        <v>40</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+    <row r="8" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
       <c r="K8" s="17"/>
@@ -966,22 +1065,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8">
+    <row r="9" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="38">
         <v>4</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="49">
         <v>125</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="48">
         <v>44308</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
-        <v>250</v>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40">
+        <f t="shared" si="1"/>
+        <v>500</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
@@ -993,25 +1093,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8">
+    <row r="10" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="38">
         <v>4</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="39">
         <v>3.5</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="48">
         <v>44308</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="8">
         <v>4</v>
@@ -1026,25 +1127,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8">
+    <row r="11" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="38">
         <v>4</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="49">
         <v>143.75</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="48">
         <v>44308</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11">
-        <v>287.5</v>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40">
+        <f t="shared" si="1"/>
+        <v>575</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="8">
         <v>1</v>
@@ -1059,25 +1161,26 @@
         <v>143.30000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="27">
+    <row r="12" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="50">
         <v>4</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="51">
         <v>42.25</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="48">
         <v>44308</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
-        <v>84.5</v>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40">
+        <f t="shared" si="1"/>
+        <v>169</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="27">
         <v>1</v>
@@ -1092,25 +1195,26 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="27">
+    <row r="13" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="50">
         <v>4</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="51">
         <v>58.05</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="48">
         <v>44308</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11">
-        <v>116.1</v>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40">
+        <f t="shared" si="1"/>
+        <v>232.2</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="27">
         <v>1</v>
@@ -1125,25 +1229,26 @@
         <v>58.05</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="8">
+    <row r="14" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="38">
         <v>4</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="49">
         <v>35</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="48">
         <v>44308</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
-        <v>35</v>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40">
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="8">
         <v>4</v>
@@ -1158,129 +1263,96 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="8">
-        <v>4</v>
-      </c>
-      <c r="D15" s="9">
-        <v>75</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+    <row r="15" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
       <c r="I15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="8">
-        <v>2</v>
-      </c>
-      <c r="K15" s="20">
-        <v>75</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="8">
-        <v>120</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1.35</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+    <row r="16" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="I16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="8">
         <v>15</v>
       </c>
-      <c r="K16" s="20">
-        <v>1.35</v>
-      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="8">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+    <row r="17" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
       <c r="I17" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="8">
-        <v>4</v>
-      </c>
-      <c r="K17" s="20">
-        <v>4.5</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="19">
-        <v>1</v>
-      </c>
-      <c r="D18" s="20">
-        <v>86</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
-        <v>86</v>
-      </c>
+    <row r="18" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="I18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="19">
-        <v>1</v>
-      </c>
-      <c r="K18" s="20">
-        <v>125</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="10"/>
       <c r="M18" s="11"/>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="8">
-        <v>4</v>
-      </c>
-      <c r="D19" s="9">
+    <row r="19" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="42">
+        <v>2</v>
+      </c>
+      <c r="D19" s="43">
         <v>250</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="40">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" s="8">
         <v>2</v>
@@ -1295,39 +1367,32 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="9">
-        <v>60</v>
-      </c>
-      <c r="D20" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+    <row r="20" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="37"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
       <c r="I20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="20">
-        <v>60</v>
-      </c>
-      <c r="K20" s="20">
-        <v>3.5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+    <row r="21" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="37"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="16"/>
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
@@ -1335,23 +1400,28 @@
       <c r="M21" s="11"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="22"/>
-      <c r="C22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="C22" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="23">
+        <f>G22/2</f>
+        <v>1766.1</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>44</v>
+      </c>
       <c r="G22" s="23">
         <f>SUM(G5:G21)</f>
-        <v>2074.1</v>
+        <v>3532.2</v>
       </c>
       <c r="I22" s="22"/>
-      <c r="J22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="33"/>
+      <c r="J22" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="36"/>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
       <c r="N22" s="23">
@@ -1359,50 +1429,50 @@
         <v>1282.05</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="34" t="s">
+    <row r="23" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
-    </row>
-    <row r="28" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="14">
         <v>2</v>
@@ -1413,13 +1483,13 @@
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12">
-        <f t="shared" ref="G29:G43" si="1">C29*D29</f>
+        <f t="shared" ref="G29:G43" si="2">C29*D29</f>
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="14">
         <v>2</v>
@@ -1430,13 +1500,13 @@
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="14">
         <v>2</v>
@@ -1447,13 +1517,13 @@
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="14">
         <v>2</v>
@@ -1464,13 +1534,13 @@
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="14">
         <v>1</v>
@@ -1481,13 +1551,13 @@
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
       <c r="G33" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="14">
         <v>1</v>
@@ -1498,13 +1568,13 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="14">
         <v>6</v>
@@ -1515,13 +1585,13 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="14">
         <v>2</v>
@@ -1532,13 +1602,13 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="14">
         <v>60</v>
@@ -1549,13 +1619,13 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="14">
         <v>4</v>
@@ -1566,13 +1636,13 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="19">
         <v>1</v>
@@ -1583,13 +1653,13 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" s="9">
         <v>30</v>
@@ -1600,13 +1670,13 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="19">
         <v>1</v>
@@ -1617,13 +1687,13 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="14">
         <v>36</v>
@@ -1634,27 +1704,27 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111.60000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="16"/>
       <c r="C43" s="14"/>
       <c r="D43" s="9"/>
       <c r="E43" s="21"/>
       <c r="F43" s="11"/>
       <c r="G43" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="22"/>
-      <c r="C44" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="33"/>
+      <c r="C44" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="36"/>
       <c r="E44" s="23">
         <f>G44/2</f>
         <v>970.3</v>
@@ -1665,36 +1735,36 @@
         <v>1940.6</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="31"/>
-    </row>
-    <row r="47" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="34"/>
+    </row>
+    <row r="47" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="14">
         <v>2</v>
@@ -1705,13 +1775,13 @@
       <c r="E48" s="10"/>
       <c r="F48" s="11"/>
       <c r="G48" s="12">
-        <f t="shared" ref="G48:G61" si="2">C48*D48</f>
+        <f t="shared" ref="G48:G61" si="3">C48*D48</f>
         <v>760</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" s="14">
         <v>2</v>
@@ -1722,13 +1792,13 @@
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
       <c r="G49" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50" s="14">
         <v>2</v>
@@ -1739,13 +1809,13 @@
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" s="14">
         <v>2</v>
@@ -1756,13 +1826,13 @@
       <c r="E51" s="10"/>
       <c r="F51" s="11"/>
       <c r="G51" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52" s="14">
         <v>1</v>
@@ -1773,13 +1843,13 @@
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
       <c r="G52" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" s="14">
         <v>1</v>
@@ -1790,13 +1860,13 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="14">
         <v>6</v>
@@ -1807,13 +1877,13 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="14">
         <v>2</v>
@@ -1824,13 +1894,13 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" s="14">
         <v>60</v>
@@ -1841,13 +1911,13 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="14">
         <v>4</v>
@@ -1858,13 +1928,13 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C58" s="19">
         <v>1</v>
@@ -1875,13 +1945,13 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C59" s="9">
         <v>30</v>
@@ -1892,13 +1962,13 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60" s="19">
         <v>1</v>
@@ -1909,13 +1979,13 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" s="14">
         <v>36</v>
@@ -1926,11 +1996,11 @@
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>111.60000000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="16"/>
       <c r="C62" s="14"/>
       <c r="D62" s="9"/>
@@ -1938,12 +2008,12 @@
       <c r="F62" s="11"/>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="22"/>
-      <c r="C63" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="33"/>
+      <c r="C63" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="36"/>
       <c r="E63" s="23">
         <f>G63/2</f>
         <v>1180.3</v>
@@ -1954,38 +2024,38 @@
         <v>2360.6</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="31"/>
-    </row>
-    <row r="66" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="34"/>
+    </row>
+    <row r="66" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67" s="14">
         <v>2</v>
@@ -1997,17 +2067,17 @@
         <v>44298</v>
       </c>
       <c r="F67" s="11">
-        <f t="shared" ref="F67:F73" si="3">G67</f>
+        <f t="shared" ref="F67:F73" si="4">G67</f>
         <v>532</v>
       </c>
       <c r="G67" s="12">
-        <f t="shared" ref="G67:G73" si="4">C67*D67</f>
+        <f t="shared" ref="G67:G73" si="5">C67*D67</f>
         <v>532</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" s="14">
         <v>4</v>
@@ -2019,17 +2089,17 @@
         <v>44298</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" si="3"/>
-        <v>496</v>
-      </c>
-      <c r="G68" s="12">
         <f t="shared" si="4"/>
         <v>496</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="12">
+        <f t="shared" si="5"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69" s="14">
         <v>3</v>
@@ -2041,17 +2111,17 @@
         <v>44298</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="G69" s="12">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="12">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70" s="14">
         <v>3</v>
@@ -2063,17 +2133,17 @@
         <v>44298</v>
       </c>
       <c r="F70" s="11">
-        <f t="shared" si="3"/>
-        <v>1140</v>
-      </c>
-      <c r="G70" s="12">
         <f t="shared" si="4"/>
         <v>1140</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="12">
+        <f t="shared" si="5"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" s="14">
         <v>2</v>
@@ -2085,17 +2155,17 @@
         <v>44298</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="G71" s="12">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="12">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C72" s="14">
         <v>6</v>
@@ -2107,17 +2177,17 @@
         <v>44298</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="G72" s="12">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="12">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C73" s="14">
         <v>4</v>
@@ -2129,15 +2199,15 @@
         <v>44298</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="G73" s="12">
         <f t="shared" si="4"/>
         <v>380</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="12">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
       <c r="D74" s="9"/>
@@ -2145,7 +2215,7 @@
       <c r="F74" s="11"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
       <c r="D75" s="9"/>
@@ -2153,7 +2223,7 @@
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
     </row>
-    <row r="76" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
       <c r="D76" s="9"/>
@@ -2161,7 +2231,7 @@
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
       <c r="D77" s="9"/>
@@ -2169,12 +2239,12 @@
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="16"/>
       <c r="C78" s="14"/>
       <c r="D78" s="9"/>
       <c r="E78" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F78" s="11"/>
       <c r="G78" s="11">
@@ -2182,914 +2252,919 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="24"/>
     </row>
-    <row r="80" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="26" t="s">
+    <row r="82" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B25:G25"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C22:D22"/>
@@ -3097,11 +3172,6 @@
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B80" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3109,6 +3179,6 @@
     <hyperlink ref="B83" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>